--- a/Clase de NIvelacion asistencia 6to.xlsx
+++ b/Clase de NIvelacion asistencia 6to.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Calificaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A4B1AA-FA4E-40A7-A394-47F1B23786A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F463FA-4B03-403C-AB48-57FCF6075A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>CURSO</t>
   </si>
@@ -100,8 +100,32 @@
     <t>FECHA ENTREGA: 14/9/2021</t>
   </si>
   <si>
+    <t>6TO</t>
+  </si>
+  <si>
+    <t>BOLAÑOS OVANDO MIJHAIL ALEXANDER</t>
+  </si>
+  <si>
+    <t>GOMEZ COSME MELANY KARINA</t>
+  </si>
+  <si>
+    <t>MAMANI LOPEZ DAFNE MILDRED</t>
+  </si>
+  <si>
+    <t>MARCONI PEREZ SINDEL LUANA</t>
+  </si>
+  <si>
+    <t>VARGAS JOYCE BELEN</t>
+  </si>
+  <si>
+    <t>ADRIAN FLORES EDDY BEYMAR</t>
+  </si>
+  <si>
+    <t>VENTURA CHOQUE DANELY KEYLA</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">MATERIA: </t>
+      <t xml:space="preserve">MATERIA:      </t>
     </r>
     <r>
       <rPr>
@@ -111,32 +135,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> TECNICA TECNOLOGICA PROGRAMACION VISUAL</t>
+      <t xml:space="preserve">         TECNICA TECNOLOGICA PROGRAMACION VISUAL Y SEGURIDAD EN SISTEMAS INFORMATICOS</t>
     </r>
   </si>
   <si>
-    <t>6TO</t>
-  </si>
-  <si>
-    <t>BOLAÑOS OVANDO MIJHAIL ALEXANDER</t>
-  </si>
-  <si>
-    <t>GOMEZ COSME MELANY KARINA</t>
-  </si>
-  <si>
-    <t>MAMANI LOPEZ DAFNE MILDRED</t>
-  </si>
-  <si>
-    <t>MARCONI PEREZ SINDEL LUANA</t>
-  </si>
-  <si>
-    <t>VARGAS JOYCE BELEN</t>
-  </si>
-  <si>
-    <t>ADRIAN FLORES EDDY BEYMAR</t>
-  </si>
-  <si>
-    <t>VENTURA CHOQUE DANELY KEYLA</t>
+    <t>No asistio a clases de nivelacion</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,11 +511,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,24 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -561,9 +544,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="22" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,6 +552,45 @@
     <xf numFmtId="22" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,23 +609,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1190,21 +1194,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" customWidth="1"/>
-    <col min="3" max="3" width="4.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="28.90625" customWidth="1"/>
-    <col min="6" max="10" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" customWidth="1"/>
+    <col min="6" max="10" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1212,281 +1216,300 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="27" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="13" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="19">
+        <v>44448.770833333336</v>
+      </c>
+      <c r="D7" s="20">
+        <v>44453.770833333336</v>
+      </c>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="21" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="28">
-        <v>44448.770833333336</v>
-      </c>
-      <c r="D7" s="29">
-        <v>44453.770833333336</v>
-      </c>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="C8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="37" t="s">
+      <c r="D11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="37" t="s">
+      <c r="D13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="39" t="s">
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="37" t="s">
+      <c r="D14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="5:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="5:5" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="5:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.82677165354330717" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="122" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -1498,7 +1521,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1510,7 +1533,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
